--- a/data/proveedor/furey/listos/tiendaNube/furey.xlsx
+++ b/data/proveedor/furey/listos/tiendaNube/furey.xlsx
@@ -49,9 +49,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -419,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +430,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="54" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
@@ -455,6 +458,2950 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>PERFUS-TIPO-SIN-AGUJA-V14-Nro-1-MACROGOTERO-BREMEN</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>bolsa-de-regalo-vacia</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>431</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>517</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>MANGO-BISTURI-DUKE-N3-10-AL-15</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>730</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>876</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>MANGO-BISTURI-DUKE-N4-20-AL-24</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>893</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>SONDA-FOLEY-2-LATEX-VIAS-EPIC-N20-BALON-5</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>384</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>SONDA-FOLEY-2-LATEX-VIAS-EPIC-N16-BALON-5</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>384</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>SONDA-FOLEY-2-LATEX-VIAS-EPIC-N18-BALON-5</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>384</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>SONDA-FOLEY-2-LATEX-VIAS-EPIC-N14-BALON-5</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>384</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>ELECTRODO-DEXAL-BOLSA-x-50-UNIDADES</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>2406</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>2887</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>PERFUS-TIPO-SIN-AGUJA-V14-Nro-1-MACROGOTERO-TRUX</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>CATETER-TEFLON-DEXAL-N16-TIPO-ABOCAT</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>CATETER-TEFLON-DEXAL-N24-TIPO-ABOCAT</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>CATETER-TEFLON-DEXAL-N20-TIPO-ABOCAT</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>CATETER-TEFLON-DEXAL-N18-TIPO-ABOCAT</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>CATETER-TEFLON-DEXAL-N22-TIPO-ABOCAT</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>CATETER-TEFLON-DEXAL-N14-TIPO-ABOCAT</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-LATEX-TRUX-GRANDE-x-100-u</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-LATEX-TRUX-MEDIANO-x-100-u</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-LATEX-BREMEN-GRANDE-x-100-u</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-LATEX-BREMEN-MEDIANO-x-100-u</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-LATEX-BREMEN-CHICO-x-100-u</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-LATEX-AS-GRANDE-x-100-u</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-LATEX-AS-MEDIANO-x-100-u</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-LATEX-FUREY-CHICO-x-100-u</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-LATEX-DEXAL-MEDIANO-x-100-u</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-LATEX-DEXAL-CHICO-x-100-u</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>ESPONJA-DE-BAniO-RECTANGULAR-ARTICULO-150</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>ESPONJA-DE-BAniO-HUESO-ANATOMICA-ARTICULO-800</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>ESPONJA-DE-BAniO-REDONDA-LABRADA-BICOLOR-ARTICULO-250</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>269</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>reparador-de-puntas-argan-oil-elevacion-x-30-cc</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>738</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>886</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>chapoteando-estuche-10-celeste</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>3257</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>3908</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>chapoteando-estuche-10-unisex</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>3257</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>3908</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>chapoteando-estuche-10-rosa</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>3257</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>3908</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>mamadera-vidrio-x-250-cc-celeste</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>819</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>983</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>mamadera-vidrio-x-250-cc-rosa</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>819</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>983</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>mamadera-vidrio-x-250-cc-verde</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>819</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>983</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>mamadera-vidrio-x-250-cc-amarillo</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>819</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>983</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-NITRILO-DEXAL-NEGRO-MEDIANO-x-100-u</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-NITRILO-DEXAL-NEGRO-GRANDE-x-100-u</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-NITRILO-DEXAL-AZUL-GRANDE-x-100-u</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-NITRILO-DEXAL-AZUL-MEDIANO-x-100-u</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-NITRILO-DEXAL-AZUL-EXTRA-GRANDE-x-100-u</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-NITRILO-DEXAL-NEGRO-EXTRA-GRANDE-x-100-u</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-NITRILO-DEXAL-AZUL-CHICO-x-100-u</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>GUANTES-NITRILO-DEXAL-NEGRO-CHICO-x-100-u</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>MAS-CLIPS-CORTO-NEGRO-x-12-114</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>MAS-CLIPS-CORTO-RUBIO-x-12-115</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>MAS-SEPARADOR-DE-DEDOS-284</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>407</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>MAS-ESPONJA-DESMAQUILLANTE-156</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>392</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>470</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>MAS-LIMA-ESMERIL-XG-x-10-227</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>460</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>552</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>MS-KDENT-CEPILLO-PLEGABLE-802</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>431</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>517</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>MAS-KDENT-CEPILLO-TRAVEL-KIDS-805</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>431</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>517</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>MAS-KDENT-CEPILLO-TRAVEL-801</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>334</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>401</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>MAS-KDENT-CEPILLO-STEPS1-0-A-2-AniOS-806</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>334</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>401</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>MAS-GUANTE-EXFOLIANTE-315</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>706</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>847</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>MAS-SAPITO-GRANDE-168</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>MAS-PIEDRA-TIPO-CHINA-234</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>571</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>685</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>MAS-APLICADOR-DE-SOMBRA-x-16-01</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>754</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>905</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>MAS-BLADE-MAX-3-AFEITADORA-BLISTER-MEN-x-2-602</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>988</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>MAS-GOMITAS-GRUESAS-NEGRAS-x-4-155</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>MAS-PESTAniAS-POSTIZAS-199</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>893</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>MAS-CLIPS-RUBIO-CORTO-BOLSA-x-72-u-504</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1402</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>MAS-CLIPS-NEGRO-CORTO-BOLSA-x-72-u-503</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1402</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>MAS-SUZIE-VINCHA-ELASTICA-DEPORTIVA-365</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>802</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>962</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>MS-LIMA-METAL-GRANDE-257</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>634</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>761</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>MAS-TIJERA-DE-CUTICULA-261</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>1184</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>1421</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>MAS-LIMA-BLOCK-126</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>474</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>569</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>MAS-BROCHE-GRANDE-147</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>413</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>496</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>MAS-ARQUEADOR-DE-PESTAniAS-53</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>1313</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>MAS-PIEDRA-POMEZ-GRANDE-279</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>505</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>606</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>MAS-UniAS-POSTIZAS-52</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>398</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>478</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>MS-BROCHE-CHICO-148</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>398</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>478</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>MAS-LIMA-BLOCK-3-USOS-109</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>444</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>533</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>MAS-APLICADOR-SET-x-5-73</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>1204</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>MAS-ALICATE-DE-UniA-264</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>2581</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>3097</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>MAS-ALICATE-DE-CUTICULA-263</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>2581</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>3097</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>MAS-SET-DE-MANICURA-290</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>3952</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>4742</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>MAS-POSA-JABON-304</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>521</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>625</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>MAS-CORTA-UniA-CHICO-BLISTER-254</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>708</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>MAS-CISNE-DIVIDIDO-ECONOMICO-22</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>636</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>763</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>MAS-CEPILLO-BRUSHING-GRANDE-239</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>1188</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>1426</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>MAS-SET-DE-REGALO-N-3-30</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>3480</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>4176</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>MAS-CEPILLO-DE-CARTERA-289</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>805</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>966</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>MAS-KDENT-CEPILLO-ANTI-SLIP-TONGUE-CLEANER-800</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>583</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>700</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>MAS-BLADE-MAX-AFEITADORA-BOLSA-WOMEN-x-2-601</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>583</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>700</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>MAS-GORRO-PILETA-LYCRA-179</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>1527</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>1832</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>MAS-BLADE-MAX-AFEITADORA-BOLSA-MEN-x-2-600</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>453</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>544</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>MAS-PORTA-COSMETICO-BOX-64</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>2143</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>2572</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>MAS-MANOPLA-VEGETAL-276</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>1859</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>2231</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>MAS-ESCOFINA-ECONOMICA-265</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>563</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>MAS-SUZIE-BROCHE-GRANDE-ESTAMPADO-329</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>746</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>895</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>MAS-CORTA-UniA-GRANDE-BLISTER-219</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>631</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>757</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>MAS-BOL-PARA-TINTURA-98</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>397</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>MAS-ESPONJA-FRUTAL-68</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>540</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>648</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>MAS-GOMITAS-FINITAS-x-10-153</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>MAS-SUZIE-COLITA-DE-TELA-331</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>664</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>797</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>MAS-GOMITAS-INVIERNO-x-12-150</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>641</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>769</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>MAS-GOMITAS-NENA-x-12-152</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>641</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>769</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>MAS-ESCOFINA-CON-PIEDRA-241</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>788</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>946</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>MAS-GOMITAS-BABY-x-12-151</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>371</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>445</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>MAS-BROCHE-ESTAMPADO-x-2-149</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>372</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>446</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>MAS-SAPITO-CHICO-169</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>260</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>MAS-KDENT-CEPILLO-3-AniOS-O-MAS-803</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>535</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>642</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>MAS-CAJA-ORTODONCIA-FLUO-176</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>760</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>912</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>MAS-PIEDRA-SINTETICA-131</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>552</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>662</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>VASELINA-MEDICINAL-FUREY-x-125-cc</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>411</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>493</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>ESPONJA-MASAJE-POM-POM-TELA-TEJIDA-LP-ART1000</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>VASELINA-MEDICINAL-FUREY-x-250-cc</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>701</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>841</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>VASELINA-MEDICINAL-FUREY-x-500-cc</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>1292</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-ELASTICA-DEPORTIVA-FUREY-x-7-cm</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>393</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>472</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-ELASTICA-DEPORTIVA-SUAVE-FUREY-x-7-cm</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>393</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>472</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-1-20-cmx-UNIDAD</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>308</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-1-15-cmx-UNIDAD</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-ELASTICA-DEPORTIVA-FUREY-x-11-cm</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>515</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>618</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-ELASTICA-DEPORTIVA-SUAVE-FUREY-x-10-cm</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>496</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>595</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-2-5-cm-x-24-u</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>1609</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>1931</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>FAJA-CON-VELCRO-FUREY-28-cm-TALLE-3</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>1675</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>FAJA-CON-VELCRO-FUREY-28-cm-TALLE-4</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>1675</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-1-7-cmx-12-UNIDADES</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>1368</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-1-5-cmx-12-UNIDADES</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>866</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>FAJA-CON-VELCRO-FUREY-24-cm-TALLE-5</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>1569</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>1883</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-ELASTICA-FUREY-10cmx-4mtCON-GANCHO</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>3172</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>3806</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>balsamo-labial-display-moon-flower-kids-x-10u</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>2332</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>FAJA-CON-VELCRO-FUREY-24-cm-TALLE-4</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>FAJA-CON-VELCRO-FUREY-24-cm-TALLE-3</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>FAJA-CON-VELCRO-FUREY-28-cm-TALLE-1</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>FAJA-CON-VELCRO-FUREY-28-cm-TALLE-2</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-2-7-cm-x-24-u</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>2242</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>2690</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>A-GRANEL-VENDA-CAMBRIC-FUREY-Mod-2-5-cm-x-500-u</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>28758</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>34510</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-5-cm-Mod-1-CAJA-x-500-u</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>29354</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>35225</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-2-10-cm-CAJA-x-500-u</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>51287</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>61544</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-1-10-cm-CAJA-x-500-u</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>55264</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>66317</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-2-7-cm-CAJA-x-700-u</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>37544</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>45053</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-ELASTICA-DE-10cm-ROLLO-x-25-METROS</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>16270</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>19524</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-1-7-cm-CAJA-x-500-u</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>40586</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>48703</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>LAPIZ-LABIAL-CAJA-EXHIBIDORA-x-30-u</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>8210</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>9852</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-2-10-cm-x-24-u</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>3126</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>3751</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-ELASTICA-FUREY-10cmx-3mt-CON-GANCHO</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>2533</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>3040</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-ELASTICA-FUREY-LIVIANA-10cmx-25mt</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>1323</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>1588</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-1-10-cmx-12-UNIDADES</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>1709</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>2051</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>FAJA-CON-VELCRO-FUREY-24-cm-TALLE-1</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>1279</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>1535</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>FAJA-CON-VELCRO-FUREY-24-cm-TALLE-2</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>1279</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>1535</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-ELASTICA-DEPORTIVA-FUREY-x-9-cm</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>453</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>544</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>FAJA-CON-VELCRO-FUREY-28-cm-TALLE-5</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>1801</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>2161</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-2-15-cm-x-UNIDAD</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-CAMBRIC-FUREY-Mod-2-20-cmx-UNIDAD</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-ELASTICA-DEPORTIVA-SUAVE-FUREY-x-5-cm</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>407</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>VENDA-ELASTICA-DEPORTIVA-FUREY-x-5-cm</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>407</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>chapoteando-estuche-7-blanco</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>1475</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>CH-ESTUCHE-N-7-A-AZUL</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>1475</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>CH-ESTUCHE-N-7-A-VERDE</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>1475</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>INVISIBLE-OGIB-PUNTA-PROTEGIDA-x-144-UNID-RUBIO</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>1273</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>1528</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>INVISIBLE-OGIB-PUNTA-PROTEGIDA-x-144-UNID-NEGRO</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>1273</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>1528</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>PEGAMENTO-SUPER-GLUE-x-3-grsx-12-POMOS</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>1153</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>1384</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-EXFOLIANTE-LISO-LP-ART790</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>298</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>358</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>set-de-regalo-n-4-flor</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>2096</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>2515</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>set-de-regalo-n-5-212-s</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>2096</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>2515</v>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>chapoteando-estuche-6-unisex</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>chapoteando-estuche-6-rosa</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>chapoteando-estuche-6-celeste</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>set-de-regalo-n-7-millon</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>3856</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>4627</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>set-de-regalo-n-6-212-m</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>3145</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>3774</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>CH-ESTUCHE-N-9-F</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>2748</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>3298</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>set-de-regalo-n-2-bella</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>2388</v>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>2866</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>set-de-regalo-n-1-vera</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>2403</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>2884</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>OG-CEPILLO-NEUMATICO-CHICO-431</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>1184</v>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>1421</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>GUANTE-EXFOLIANTE-LISO</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>312</v>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>PERFILADOR-NAVAJIN-DE-CEJAS-DAMA-x-1-u-9101</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>312</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>DISWALD-PINZA-DEPILAR-DORADA-x-1-u-1932</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>669</v>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>803</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>DISWALD-CEPILLO-NEUMATICO-FINO-406</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>1709</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>CEPILLO-NEUMATICO-CHICO-OGIB-406</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>1424</v>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>1709</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>DISWALD-PINZA-DEPILAR-NEGRA-x-1-u-1933</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>503</v>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>604</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>ESPEJO-CON-AUMENTO-10X-W101</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>924</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>1109</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>CEPILLO-NEUMATICO-OVAL-GRANDE-OGIB-405</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>1538</v>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>DISWALD-CEPILLO-NEUMATICO-OVAL-405</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>1538</v>
+      </c>
+      <c r="C176" s="2" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>ESPEJO-CON-AUMENTO-5X-66025</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>883</v>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>BICARBONATO-DE-SODIO-FUREY-CCUCHARA-x250gr</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>605</v>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>726</v>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>OG-CEPILLO-NEUMATICO-DELFIN-CHICO-200</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>520</v>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>624</v>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>DISWALD-PINZA-DEPILAR-PLATEADA-x-1-u-1931</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>461</v>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>553</v>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>BICARBONATO-DE-SODIO-DROGAL-CAJA-x-100-gr</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>279</v>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>335</v>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>FERULA-DIGITAL-DE-15-mm-x-50-cm-bolsa-x-5-u</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>FERULA-DIGITAL-DE-20-mm-x-50-cm-bolsa-x-5-u</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>2258</v>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>2710</v>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>FERULA-DIGITAL-DE-10-mm-x-50-cm-bolsa-x-5-u</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>1493</v>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>1792</v>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>FERULA-DIGITAL-DE-25-mm-x-50-cm-bolsa-x-5-u</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>2561</v>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>3073</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
